--- a/納豆仕様書11.10.xlsx
+++ b/納豆仕様書11.10.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\田中 湧輝\Desktop\git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAAB446F-32C8-4BCC-B5E3-961C89E47060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F6B2A7-56D3-4ADD-B4FF-8603A275FF73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="779" activeTab="3" xr2:uid="{C4C6002F-9450-4BE2-A7A1-30430E39AEEE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="779" activeTab="1" xr2:uid="{C4C6002F-9450-4BE2-A7A1-30430E39AEEE}"/>
   </bookViews>
   <sheets>
     <sheet name="プレイヤー仕様" sheetId="9" r:id="rId1"/>
-    <sheet name="納豆ゲージ" sheetId="15" r:id="rId2"/>
+    <sheet name="納豆混ぜモード" sheetId="15" r:id="rId2"/>
     <sheet name="ステージNo.01" sheetId="14" r:id="rId3"/>
     <sheet name="画面サイズ仕様" sheetId="11" r:id="rId4"/>
     <sheet name="更新履歴" sheetId="1" r:id="rId5"/>
@@ -2485,31 +2485,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>▽</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>糸の発射</t>
-    </r>
-    <rPh sb="1" eb="2">
-      <t>イト</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ハッシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>糸の射程範囲</t>
     <rPh sb="0" eb="1">
       <t>イト</t>
@@ -2604,6 +2579,31 @@
   </si>
   <si>
     <t>つくった</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>▽</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>糸の射程</t>
+    </r>
+    <rPh sb="1" eb="2">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シャテイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3473,6 +3473,33 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3489,6 +3516,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3524,15 +3557,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3548,16 +3572,10 @@
     <xf numFmtId="0" fontId="23" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3575,95 +3593,20 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3678,6 +3621,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3698,19 +3647,70 @@
     <xf numFmtId="0" fontId="21" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10501,15 +10501,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>136071</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>68034</xdr:rowOff>
+      <xdr:colOff>122464</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>122527</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>223005</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>162731</xdr:rowOff>
+      <xdr:colOff>154970</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>162732</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10526,8 +10526,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1442357" y="15743463"/>
-          <a:ext cx="6618362" cy="6626125"/>
+          <a:off x="1428750" y="15471384"/>
+          <a:ext cx="6563934" cy="6571634"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -36212,8 +36212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F65546-5D67-4E41-8987-34D8BAB8B970}">
   <dimension ref="A1:AR136"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Z121" sqref="Z121:AK125"/>
+    <sheetView topLeftCell="A130" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AO102" sqref="AO102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.23046875" defaultRowHeight="22.2" x14ac:dyDescent="0.55000000000000004"/>
@@ -36257,432 +36257,432 @@
       <c r="Y3" s="62"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.55000000000000004">
-      <c r="C5" s="97" t="s">
+      <c r="C5" s="105" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="97" t="s">
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="105" t="s">
         <v>114</v>
       </c>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="106"/>
-      <c r="L5" s="106"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="97" t="s">
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="112"/>
+      <c r="M5" s="113"/>
+      <c r="N5" s="105" t="s">
         <v>113</v>
       </c>
-      <c r="O5" s="98"/>
-      <c r="P5" s="98"/>
-      <c r="Q5" s="98"/>
-      <c r="R5" s="98"/>
-      <c r="S5" s="98"/>
-      <c r="T5" s="98"/>
-      <c r="U5" s="98"/>
-      <c r="V5" s="98"/>
-      <c r="W5" s="98"/>
-      <c r="X5" s="99"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="106"/>
+      <c r="T5" s="106"/>
+      <c r="U5" s="106"/>
+      <c r="V5" s="106"/>
+      <c r="W5" s="106"/>
+      <c r="X5" s="107"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.55000000000000004">
-      <c r="C6" s="100" t="s">
+      <c r="C6" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="108" t="s">
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="114" t="s">
         <v>111</v>
       </c>
-      <c r="I6" s="109"/>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="109"/>
-      <c r="M6" s="110"/>
-      <c r="N6" s="103"/>
-      <c r="O6" s="104"/>
-      <c r="P6" s="104"/>
-      <c r="Q6" s="104"/>
-      <c r="R6" s="104"/>
-      <c r="S6" s="104"/>
-      <c r="T6" s="104"/>
-      <c r="U6" s="104"/>
-      <c r="V6" s="104"/>
-      <c r="W6" s="104"/>
-      <c r="X6" s="105"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="115"/>
+      <c r="M6" s="116"/>
+      <c r="N6" s="117"/>
+      <c r="O6" s="118"/>
+      <c r="P6" s="118"/>
+      <c r="Q6" s="118"/>
+      <c r="R6" s="118"/>
+      <c r="S6" s="118"/>
+      <c r="T6" s="118"/>
+      <c r="U6" s="118"/>
+      <c r="V6" s="118"/>
+      <c r="W6" s="118"/>
+      <c r="X6" s="119"/>
     </row>
     <row r="7" spans="1:40" ht="22.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C7" s="100" t="s">
+      <c r="C7" s="108" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="96" t="s">
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="110" t="s">
         <v>109</v>
       </c>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
-      <c r="N7" s="93" t="s">
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="104" t="s">
         <v>118</v>
       </c>
-      <c r="O7" s="78"/>
-      <c r="P7" s="78"/>
-      <c r="Q7" s="78"/>
-      <c r="R7" s="78"/>
-      <c r="S7" s="78"/>
-      <c r="T7" s="78"/>
-      <c r="U7" s="78"/>
-      <c r="V7" s="78"/>
-      <c r="W7" s="78"/>
-      <c r="X7" s="78"/>
-      <c r="Y7" s="94" t="s">
+      <c r="O7" s="87"/>
+      <c r="P7" s="87"/>
+      <c r="Q7" s="87"/>
+      <c r="R7" s="87"/>
+      <c r="S7" s="87"/>
+      <c r="T7" s="87"/>
+      <c r="U7" s="87"/>
+      <c r="V7" s="87"/>
+      <c r="W7" s="87"/>
+      <c r="X7" s="87"/>
+      <c r="Y7" s="92" t="s">
         <v>126</v>
       </c>
-      <c r="Z7" s="95"/>
-      <c r="AA7" s="95"/>
-      <c r="AB7" s="95"/>
-      <c r="AC7" s="95"/>
-      <c r="AD7" s="95"/>
-      <c r="AE7" s="95"/>
-      <c r="AF7" s="95"/>
-      <c r="AG7" s="95"/>
-      <c r="AH7" s="95"/>
-      <c r="AI7" s="95"/>
-      <c r="AJ7" s="95"/>
-      <c r="AK7" s="95"/>
-      <c r="AL7" s="95"/>
-      <c r="AM7" s="95"/>
-      <c r="AN7" s="95"/>
+      <c r="Z7" s="93"/>
+      <c r="AA7" s="93"/>
+      <c r="AB7" s="93"/>
+      <c r="AC7" s="93"/>
+      <c r="AD7" s="93"/>
+      <c r="AE7" s="93"/>
+      <c r="AF7" s="93"/>
+      <c r="AG7" s="93"/>
+      <c r="AH7" s="93"/>
+      <c r="AI7" s="93"/>
+      <c r="AJ7" s="93"/>
+      <c r="AK7" s="93"/>
+      <c r="AL7" s="93"/>
+      <c r="AM7" s="93"/>
+      <c r="AN7" s="93"/>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.55000000000000004">
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
-      <c r="N8" s="78"/>
-      <c r="O8" s="78"/>
-      <c r="P8" s="78"/>
-      <c r="Q8" s="78"/>
-      <c r="R8" s="78"/>
-      <c r="S8" s="78"/>
-      <c r="T8" s="78"/>
-      <c r="U8" s="78"/>
-      <c r="V8" s="78"/>
-      <c r="W8" s="78"/>
-      <c r="X8" s="78"/>
-      <c r="Y8" s="94"/>
-      <c r="Z8" s="95"/>
-      <c r="AA8" s="95"/>
-      <c r="AB8" s="95"/>
-      <c r="AC8" s="95"/>
-      <c r="AD8" s="95"/>
-      <c r="AE8" s="95"/>
-      <c r="AF8" s="95"/>
-      <c r="AG8" s="95"/>
-      <c r="AH8" s="95"/>
-      <c r="AI8" s="95"/>
-      <c r="AJ8" s="95"/>
-      <c r="AK8" s="95"/>
-      <c r="AL8" s="95"/>
-      <c r="AM8" s="95"/>
-      <c r="AN8" s="95"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="111"/>
+      <c r="L8" s="111"/>
+      <c r="M8" s="111"/>
+      <c r="N8" s="87"/>
+      <c r="O8" s="87"/>
+      <c r="P8" s="87"/>
+      <c r="Q8" s="87"/>
+      <c r="R8" s="87"/>
+      <c r="S8" s="87"/>
+      <c r="T8" s="87"/>
+      <c r="U8" s="87"/>
+      <c r="V8" s="87"/>
+      <c r="W8" s="87"/>
+      <c r="X8" s="87"/>
+      <c r="Y8" s="92"/>
+      <c r="Z8" s="93"/>
+      <c r="AA8" s="93"/>
+      <c r="AB8" s="93"/>
+      <c r="AC8" s="93"/>
+      <c r="AD8" s="93"/>
+      <c r="AE8" s="93"/>
+      <c r="AF8" s="93"/>
+      <c r="AG8" s="93"/>
+      <c r="AH8" s="93"/>
+      <c r="AI8" s="93"/>
+      <c r="AJ8" s="93"/>
+      <c r="AK8" s="93"/>
+      <c r="AL8" s="93"/>
+      <c r="AM8" s="93"/>
+      <c r="AN8" s="93"/>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" s="83" t="s">
+      <c r="C9" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="89" t="s">
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="100" t="s">
         <v>145</v>
       </c>
-      <c r="I9" s="90"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="90"/>
-      <c r="N9" s="96" t="s">
+      <c r="I9" s="101"/>
+      <c r="J9" s="101"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="101"/>
+      <c r="N9" s="110" t="s">
         <v>127</v>
       </c>
-      <c r="O9" s="78"/>
-      <c r="P9" s="78"/>
-      <c r="Q9" s="78"/>
-      <c r="R9" s="78"/>
-      <c r="S9" s="78"/>
-      <c r="T9" s="78"/>
-      <c r="U9" s="78"/>
-      <c r="V9" s="78"/>
-      <c r="W9" s="78"/>
-      <c r="X9" s="78"/>
+      <c r="O9" s="87"/>
+      <c r="P9" s="87"/>
+      <c r="Q9" s="87"/>
+      <c r="R9" s="87"/>
+      <c r="S9" s="87"/>
+      <c r="T9" s="87"/>
+      <c r="U9" s="87"/>
+      <c r="V9" s="87"/>
+      <c r="W9" s="87"/>
+      <c r="X9" s="87"/>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.55000000000000004">
-      <c r="C10" s="86"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="78"/>
-      <c r="O10" s="78"/>
-      <c r="P10" s="78"/>
-      <c r="Q10" s="78"/>
-      <c r="R10" s="78"/>
-      <c r="S10" s="78"/>
-      <c r="T10" s="78"/>
-      <c r="U10" s="78"/>
-      <c r="V10" s="78"/>
-      <c r="W10" s="78"/>
-      <c r="X10" s="78"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="103"/>
+      <c r="J10" s="103"/>
+      <c r="K10" s="103"/>
+      <c r="L10" s="103"/>
+      <c r="M10" s="103"/>
+      <c r="N10" s="87"/>
+      <c r="O10" s="87"/>
+      <c r="P10" s="87"/>
+      <c r="Q10" s="87"/>
+      <c r="R10" s="87"/>
+      <c r="S10" s="87"/>
+      <c r="T10" s="87"/>
+      <c r="U10" s="87"/>
+      <c r="V10" s="87"/>
+      <c r="W10" s="87"/>
+      <c r="X10" s="87"/>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.55000000000000004">
-      <c r="C11" s="83" t="s">
+      <c r="C11" s="94" t="s">
         <v>150</v>
       </c>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="89" t="s">
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="100" t="s">
         <v>130</v>
       </c>
-      <c r="I11" s="90"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="90"/>
-      <c r="N11" s="93" t="s">
+      <c r="I11" s="101"/>
+      <c r="J11" s="101"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="101"/>
+      <c r="M11" s="101"/>
+      <c r="N11" s="104" t="s">
         <v>132</v>
       </c>
-      <c r="O11" s="78"/>
-      <c r="P11" s="78"/>
-      <c r="Q11" s="78"/>
-      <c r="R11" s="78"/>
-      <c r="S11" s="78"/>
-      <c r="T11" s="78"/>
-      <c r="U11" s="78"/>
-      <c r="V11" s="78"/>
-      <c r="W11" s="78"/>
-      <c r="X11" s="78"/>
-      <c r="Y11" s="94" t="s">
+      <c r="O11" s="87"/>
+      <c r="P11" s="87"/>
+      <c r="Q11" s="87"/>
+      <c r="R11" s="87"/>
+      <c r="S11" s="87"/>
+      <c r="T11" s="87"/>
+      <c r="U11" s="87"/>
+      <c r="V11" s="87"/>
+      <c r="W11" s="87"/>
+      <c r="X11" s="87"/>
+      <c r="Y11" s="92" t="s">
         <v>134</v>
       </c>
-      <c r="Z11" s="95"/>
-      <c r="AA11" s="95"/>
-      <c r="AB11" s="95"/>
-      <c r="AC11" s="95"/>
-      <c r="AD11" s="95"/>
-      <c r="AE11" s="95"/>
-      <c r="AF11" s="95"/>
-      <c r="AG11" s="95"/>
-      <c r="AH11" s="95"/>
-      <c r="AI11" s="95"/>
-      <c r="AJ11" s="95"/>
-      <c r="AK11" s="95"/>
-      <c r="AL11" s="95"/>
-      <c r="AM11" s="95"/>
-      <c r="AN11" s="95"/>
+      <c r="Z11" s="93"/>
+      <c r="AA11" s="93"/>
+      <c r="AB11" s="93"/>
+      <c r="AC11" s="93"/>
+      <c r="AD11" s="93"/>
+      <c r="AE11" s="93"/>
+      <c r="AF11" s="93"/>
+      <c r="AG11" s="93"/>
+      <c r="AH11" s="93"/>
+      <c r="AI11" s="93"/>
+      <c r="AJ11" s="93"/>
+      <c r="AK11" s="93"/>
+      <c r="AL11" s="93"/>
+      <c r="AM11" s="93"/>
+      <c r="AN11" s="93"/>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.55000000000000004">
-      <c r="C12" s="86"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="92"/>
-      <c r="J12" s="92"/>
-      <c r="K12" s="92"/>
-      <c r="L12" s="92"/>
-      <c r="M12" s="92"/>
-      <c r="N12" s="78"/>
-      <c r="O12" s="78"/>
-      <c r="P12" s="78"/>
-      <c r="Q12" s="78"/>
-      <c r="R12" s="78"/>
-      <c r="S12" s="78"/>
-      <c r="T12" s="78"/>
-      <c r="U12" s="78"/>
-      <c r="V12" s="78"/>
-      <c r="W12" s="78"/>
-      <c r="X12" s="78"/>
-      <c r="Y12" s="94"/>
-      <c r="Z12" s="95"/>
-      <c r="AA12" s="95"/>
-      <c r="AB12" s="95"/>
-      <c r="AC12" s="95"/>
-      <c r="AD12" s="95"/>
-      <c r="AE12" s="95"/>
-      <c r="AF12" s="95"/>
-      <c r="AG12" s="95"/>
-      <c r="AH12" s="95"/>
-      <c r="AI12" s="95"/>
-      <c r="AJ12" s="95"/>
-      <c r="AK12" s="95"/>
-      <c r="AL12" s="95"/>
-      <c r="AM12" s="95"/>
-      <c r="AN12" s="95"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="103"/>
+      <c r="J12" s="103"/>
+      <c r="K12" s="103"/>
+      <c r="L12" s="103"/>
+      <c r="M12" s="103"/>
+      <c r="N12" s="87"/>
+      <c r="O12" s="87"/>
+      <c r="P12" s="87"/>
+      <c r="Q12" s="87"/>
+      <c r="R12" s="87"/>
+      <c r="S12" s="87"/>
+      <c r="T12" s="87"/>
+      <c r="U12" s="87"/>
+      <c r="V12" s="87"/>
+      <c r="W12" s="87"/>
+      <c r="X12" s="87"/>
+      <c r="Y12" s="92"/>
+      <c r="Z12" s="93"/>
+      <c r="AA12" s="93"/>
+      <c r="AB12" s="93"/>
+      <c r="AC12" s="93"/>
+      <c r="AD12" s="93"/>
+      <c r="AE12" s="93"/>
+      <c r="AF12" s="93"/>
+      <c r="AG12" s="93"/>
+      <c r="AH12" s="93"/>
+      <c r="AI12" s="93"/>
+      <c r="AJ12" s="93"/>
+      <c r="AK12" s="93"/>
+      <c r="AL12" s="93"/>
+      <c r="AM12" s="93"/>
+      <c r="AN12" s="93"/>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.55000000000000004">
-      <c r="C13" s="83" t="s">
+      <c r="C13" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="89" t="s">
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="100" t="s">
         <v>130</v>
       </c>
-      <c r="I13" s="90"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="90"/>
-      <c r="N13" s="93" t="s">
+      <c r="I13" s="101"/>
+      <c r="J13" s="101"/>
+      <c r="K13" s="101"/>
+      <c r="L13" s="101"/>
+      <c r="M13" s="101"/>
+      <c r="N13" s="104" t="s">
         <v>133</v>
       </c>
-      <c r="O13" s="78"/>
-      <c r="P13" s="78"/>
-      <c r="Q13" s="78"/>
-      <c r="R13" s="78"/>
-      <c r="S13" s="78"/>
-      <c r="T13" s="78"/>
-      <c r="U13" s="78"/>
-      <c r="V13" s="78"/>
-      <c r="W13" s="78"/>
-      <c r="X13" s="78"/>
-      <c r="Y13" s="94"/>
-      <c r="Z13" s="95"/>
-      <c r="AA13" s="95"/>
-      <c r="AB13" s="95"/>
-      <c r="AC13" s="95"/>
-      <c r="AD13" s="95"/>
-      <c r="AE13" s="95"/>
-      <c r="AF13" s="95"/>
-      <c r="AG13" s="95"/>
-      <c r="AH13" s="95"/>
-      <c r="AI13" s="95"/>
-      <c r="AJ13" s="95"/>
-      <c r="AK13" s="95"/>
-      <c r="AL13" s="95"/>
-      <c r="AM13" s="95"/>
-      <c r="AN13" s="95"/>
+      <c r="O13" s="87"/>
+      <c r="P13" s="87"/>
+      <c r="Q13" s="87"/>
+      <c r="R13" s="87"/>
+      <c r="S13" s="87"/>
+      <c r="T13" s="87"/>
+      <c r="U13" s="87"/>
+      <c r="V13" s="87"/>
+      <c r="W13" s="87"/>
+      <c r="X13" s="87"/>
+      <c r="Y13" s="92"/>
+      <c r="Z13" s="93"/>
+      <c r="AA13" s="93"/>
+      <c r="AB13" s="93"/>
+      <c r="AC13" s="93"/>
+      <c r="AD13" s="93"/>
+      <c r="AE13" s="93"/>
+      <c r="AF13" s="93"/>
+      <c r="AG13" s="93"/>
+      <c r="AH13" s="93"/>
+      <c r="AI13" s="93"/>
+      <c r="AJ13" s="93"/>
+      <c r="AK13" s="93"/>
+      <c r="AL13" s="93"/>
+      <c r="AM13" s="93"/>
+      <c r="AN13" s="93"/>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.55000000000000004">
-      <c r="C14" s="86"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="92"/>
-      <c r="L14" s="92"/>
-      <c r="M14" s="92"/>
-      <c r="N14" s="78"/>
-      <c r="O14" s="78"/>
-      <c r="P14" s="78"/>
-      <c r="Q14" s="78"/>
-      <c r="R14" s="78"/>
-      <c r="S14" s="78"/>
-      <c r="T14" s="78"/>
-      <c r="U14" s="78"/>
-      <c r="V14" s="78"/>
-      <c r="W14" s="78"/>
-      <c r="X14" s="78"/>
-      <c r="Y14" s="94"/>
-      <c r="Z14" s="95"/>
-      <c r="AA14" s="95"/>
-      <c r="AB14" s="95"/>
-      <c r="AC14" s="95"/>
-      <c r="AD14" s="95"/>
-      <c r="AE14" s="95"/>
-      <c r="AF14" s="95"/>
-      <c r="AG14" s="95"/>
-      <c r="AH14" s="95"/>
-      <c r="AI14" s="95"/>
-      <c r="AJ14" s="95"/>
-      <c r="AK14" s="95"/>
-      <c r="AL14" s="95"/>
-      <c r="AM14" s="95"/>
-      <c r="AN14" s="95"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="103"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="103"/>
+      <c r="L14" s="103"/>
+      <c r="M14" s="103"/>
+      <c r="N14" s="87"/>
+      <c r="O14" s="87"/>
+      <c r="P14" s="87"/>
+      <c r="Q14" s="87"/>
+      <c r="R14" s="87"/>
+      <c r="S14" s="87"/>
+      <c r="T14" s="87"/>
+      <c r="U14" s="87"/>
+      <c r="V14" s="87"/>
+      <c r="W14" s="87"/>
+      <c r="X14" s="87"/>
+      <c r="Y14" s="92"/>
+      <c r="Z14" s="93"/>
+      <c r="AA14" s="93"/>
+      <c r="AB14" s="93"/>
+      <c r="AC14" s="93"/>
+      <c r="AD14" s="93"/>
+      <c r="AE14" s="93"/>
+      <c r="AF14" s="93"/>
+      <c r="AG14" s="93"/>
+      <c r="AH14" s="93"/>
+      <c r="AI14" s="93"/>
+      <c r="AJ14" s="93"/>
+      <c r="AK14" s="93"/>
+      <c r="AL14" s="93"/>
+      <c r="AM14" s="93"/>
+      <c r="AN14" s="93"/>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.55000000000000004">
-      <c r="C15" s="83" t="s">
+      <c r="C15" s="94" t="s">
         <v>128</v>
       </c>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="89" t="s">
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="100" t="s">
         <v>129</v>
       </c>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="90"/>
-      <c r="N15" s="93" t="s">
+      <c r="I15" s="101"/>
+      <c r="J15" s="101"/>
+      <c r="K15" s="101"/>
+      <c r="L15" s="101"/>
+      <c r="M15" s="101"/>
+      <c r="N15" s="104" t="s">
         <v>171</v>
       </c>
-      <c r="O15" s="78"/>
-      <c r="P15" s="78"/>
-      <c r="Q15" s="78"/>
-      <c r="R15" s="78"/>
-      <c r="S15" s="78"/>
-      <c r="T15" s="78"/>
-      <c r="U15" s="78"/>
-      <c r="V15" s="78"/>
-      <c r="W15" s="78"/>
-      <c r="X15" s="78"/>
+      <c r="O15" s="87"/>
+      <c r="P15" s="87"/>
+      <c r="Q15" s="87"/>
+      <c r="R15" s="87"/>
+      <c r="S15" s="87"/>
+      <c r="T15" s="87"/>
+      <c r="U15" s="87"/>
+      <c r="V15" s="87"/>
+      <c r="W15" s="87"/>
+      <c r="X15" s="87"/>
     </row>
     <row r="16" spans="1:40" ht="22.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C16" s="86"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="92"/>
-      <c r="L16" s="92"/>
-      <c r="M16" s="92"/>
-      <c r="N16" s="78"/>
-      <c r="O16" s="78"/>
-      <c r="P16" s="78"/>
-      <c r="Q16" s="78"/>
-      <c r="R16" s="78"/>
-      <c r="S16" s="78"/>
-      <c r="T16" s="78"/>
-      <c r="U16" s="78"/>
-      <c r="V16" s="78"/>
-      <c r="W16" s="78"/>
-      <c r="X16" s="78"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="103"/>
+      <c r="L16" s="103"/>
+      <c r="M16" s="103"/>
+      <c r="N16" s="87"/>
+      <c r="O16" s="87"/>
+      <c r="P16" s="87"/>
+      <c r="Q16" s="87"/>
+      <c r="R16" s="87"/>
+      <c r="S16" s="87"/>
+      <c r="T16" s="87"/>
+      <c r="U16" s="87"/>
+      <c r="V16" s="87"/>
+      <c r="W16" s="87"/>
+      <c r="X16" s="87"/>
     </row>
     <row r="19" spans="3:26" x14ac:dyDescent="0.55000000000000004">
       <c r="C19" s="63" t="s">
@@ -36784,15 +36784,15 @@
       <c r="J32" s="60">
         <v>5</v>
       </c>
-      <c r="N32" s="79" t="s">
+      <c r="N32" s="88" t="s">
         <v>105</v>
       </c>
-      <c r="O32" s="79"/>
-      <c r="P32" s="79"/>
-      <c r="Q32" s="79"/>
-      <c r="R32" s="79"/>
-      <c r="S32" s="79"/>
-      <c r="T32" s="79"/>
+      <c r="O32" s="88"/>
+      <c r="P32" s="88"/>
+      <c r="Q32" s="88"/>
+      <c r="R32" s="88"/>
+      <c r="S32" s="88"/>
+      <c r="T32" s="88"/>
     </row>
     <row r="33" spans="4:24" x14ac:dyDescent="0.55000000000000004">
       <c r="I33" s="60">
@@ -36801,15 +36801,15 @@
       <c r="J33" s="60">
         <v>4</v>
       </c>
-      <c r="N33" s="78" t="s">
+      <c r="N33" s="87" t="s">
         <v>135</v>
       </c>
-      <c r="O33" s="78"/>
-      <c r="P33" s="78"/>
-      <c r="Q33" s="78"/>
-      <c r="R33" s="78"/>
-      <c r="S33" s="78"/>
-      <c r="T33" s="78"/>
+      <c r="O33" s="87"/>
+      <c r="P33" s="87"/>
+      <c r="Q33" s="87"/>
+      <c r="R33" s="87"/>
+      <c r="S33" s="87"/>
+      <c r="T33" s="87"/>
       <c r="U33" t="s">
         <v>104</v>
       </c>
@@ -36873,24 +36873,24 @@
       </c>
     </row>
     <row r="43" spans="4:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="R43" s="79" t="s">
+      <c r="R43" s="88" t="s">
         <v>102</v>
       </c>
-      <c r="S43" s="79"/>
-      <c r="T43" s="79"/>
-      <c r="U43" s="79"/>
-      <c r="V43" s="79"/>
-      <c r="W43" s="79"/>
+      <c r="S43" s="88"/>
+      <c r="T43" s="88"/>
+      <c r="U43" s="88"/>
+      <c r="V43" s="88"/>
+      <c r="W43" s="88"/>
     </row>
     <row r="44" spans="4:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="R44" s="78" t="s">
+      <c r="R44" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="S44" s="78"/>
-      <c r="T44" s="78"/>
-      <c r="U44" s="78"/>
-      <c r="V44" s="78"/>
-      <c r="W44" s="78"/>
+      <c r="S44" s="87"/>
+      <c r="T44" s="87"/>
+      <c r="U44" s="87"/>
+      <c r="V44" s="87"/>
+      <c r="W44" s="87"/>
       <c r="X44" t="s">
         <v>100</v>
       </c>
@@ -36973,70 +36973,70 @@
       </c>
     </row>
     <row r="54" spans="3:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="U54" s="79" t="s">
+      <c r="U54" s="88" t="s">
         <v>137</v>
       </c>
-      <c r="V54" s="79"/>
-      <c r="W54" s="79"/>
-      <c r="X54" s="79"/>
-      <c r="Y54" s="79"/>
-      <c r="Z54" s="79"/>
-      <c r="AA54" s="79"/>
-      <c r="AB54" s="79"/>
-      <c r="AC54" s="79"/>
-      <c r="AD54" s="79"/>
-      <c r="AE54" s="79"/>
-      <c r="AF54" s="79"/>
-      <c r="AG54" s="79"/>
+      <c r="V54" s="88"/>
+      <c r="W54" s="88"/>
+      <c r="X54" s="88"/>
+      <c r="Y54" s="88"/>
+      <c r="Z54" s="88"/>
+      <c r="AA54" s="88"/>
+      <c r="AB54" s="88"/>
+      <c r="AC54" s="88"/>
+      <c r="AD54" s="88"/>
+      <c r="AE54" s="88"/>
+      <c r="AF54" s="88"/>
+      <c r="AG54" s="88"/>
       <c r="AI54" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="55" spans="3:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="U55" s="80" t="s">
+      <c r="U55" s="89" t="s">
         <v>144</v>
       </c>
-      <c r="V55" s="81"/>
-      <c r="W55" s="81"/>
-      <c r="X55" s="81"/>
-      <c r="Y55" s="81"/>
-      <c r="Z55" s="81"/>
-      <c r="AA55" s="81"/>
-      <c r="AB55" s="81"/>
-      <c r="AC55" s="81"/>
-      <c r="AD55" s="81"/>
-      <c r="AE55" s="81"/>
-      <c r="AF55" s="81"/>
-      <c r="AG55" s="82"/>
+      <c r="V55" s="90"/>
+      <c r="W55" s="90"/>
+      <c r="X55" s="90"/>
+      <c r="Y55" s="90"/>
+      <c r="Z55" s="90"/>
+      <c r="AA55" s="90"/>
+      <c r="AB55" s="90"/>
+      <c r="AC55" s="90"/>
+      <c r="AD55" s="90"/>
+      <c r="AE55" s="90"/>
+      <c r="AF55" s="90"/>
+      <c r="AG55" s="91"/>
       <c r="AI55" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="58" spans="3:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="U58" s="79" t="s">
+      <c r="U58" s="88" t="s">
         <v>146</v>
       </c>
-      <c r="V58" s="79"/>
-      <c r="W58" s="79"/>
-      <c r="X58" s="79"/>
-      <c r="Y58" s="79"/>
-      <c r="Z58" s="79"/>
-      <c r="AA58" s="79"/>
-      <c r="AB58" s="79"/>
-      <c r="AC58" s="79"/>
+      <c r="V58" s="88"/>
+      <c r="W58" s="88"/>
+      <c r="X58" s="88"/>
+      <c r="Y58" s="88"/>
+      <c r="Z58" s="88"/>
+      <c r="AA58" s="88"/>
+      <c r="AB58" s="88"/>
+      <c r="AC58" s="88"/>
     </row>
     <row r="59" spans="3:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="U59" s="80" t="s">
+      <c r="U59" s="89" t="s">
         <v>147</v>
       </c>
-      <c r="V59" s="81"/>
-      <c r="W59" s="81"/>
-      <c r="X59" s="81"/>
-      <c r="Y59" s="81"/>
-      <c r="Z59" s="81"/>
-      <c r="AA59" s="81"/>
-      <c r="AB59" s="81"/>
-      <c r="AC59" s="82"/>
+      <c r="V59" s="90"/>
+      <c r="W59" s="90"/>
+      <c r="X59" s="90"/>
+      <c r="Y59" s="90"/>
+      <c r="Z59" s="90"/>
+      <c r="AA59" s="90"/>
+      <c r="AB59" s="90"/>
+      <c r="AC59" s="91"/>
     </row>
     <row r="61" spans="3:35" x14ac:dyDescent="0.55000000000000004">
       <c r="D61" s="60">
@@ -37095,20 +37095,20 @@
       </c>
     </row>
     <row r="73" spans="14:42" x14ac:dyDescent="0.55000000000000004">
-      <c r="AC73" s="79" t="s">
+      <c r="AC73" s="88" t="s">
         <v>141</v>
       </c>
-      <c r="AD73" s="79"/>
-      <c r="AE73" s="79"/>
-      <c r="AF73" s="79"/>
-      <c r="AG73" s="79"/>
-      <c r="AH73" s="79"/>
-      <c r="AI73" s="79"/>
-      <c r="AJ73" s="79"/>
-      <c r="AK73" s="79"/>
-      <c r="AL73" s="79"/>
-      <c r="AM73" s="79"/>
-      <c r="AN73" s="79"/>
+      <c r="AD73" s="88"/>
+      <c r="AE73" s="88"/>
+      <c r="AF73" s="88"/>
+      <c r="AG73" s="88"/>
+      <c r="AH73" s="88"/>
+      <c r="AI73" s="88"/>
+      <c r="AJ73" s="88"/>
+      <c r="AK73" s="88"/>
+      <c r="AL73" s="88"/>
+      <c r="AM73" s="88"/>
+      <c r="AN73" s="88"/>
     </row>
     <row r="74" spans="14:42" x14ac:dyDescent="0.55000000000000004">
       <c r="AC74" s="75" t="s">
@@ -37127,59 +37127,59 @@
       <c r="AN74" s="75"/>
     </row>
     <row r="77" spans="14:42" x14ac:dyDescent="0.55000000000000004">
-      <c r="AC77" s="79" t="s">
+      <c r="AC77" s="88" t="s">
         <v>148</v>
       </c>
-      <c r="AD77" s="79"/>
-      <c r="AE77" s="79"/>
-      <c r="AF77" s="79"/>
-      <c r="AG77" s="79"/>
-      <c r="AH77" s="79"/>
-      <c r="AI77" s="79"/>
-      <c r="AJ77" s="79"/>
-      <c r="AK77" s="79"/>
-      <c r="AL77" s="79"/>
-      <c r="AM77" s="79"/>
-      <c r="AN77" s="79"/>
-      <c r="AO77" s="79"/>
-      <c r="AP77" s="79"/>
+      <c r="AD77" s="88"/>
+      <c r="AE77" s="88"/>
+      <c r="AF77" s="88"/>
+      <c r="AG77" s="88"/>
+      <c r="AH77" s="88"/>
+      <c r="AI77" s="88"/>
+      <c r="AJ77" s="88"/>
+      <c r="AK77" s="88"/>
+      <c r="AL77" s="88"/>
+      <c r="AM77" s="88"/>
+      <c r="AN77" s="88"/>
+      <c r="AO77" s="88"/>
+      <c r="AP77" s="88"/>
     </row>
     <row r="78" spans="14:42" x14ac:dyDescent="0.55000000000000004">
       <c r="AB78" t="s">
         <v>143</v>
       </c>
-      <c r="AC78" s="77" t="s">
+      <c r="AC78" s="86" t="s">
         <v>149</v>
       </c>
-      <c r="AD78" s="78"/>
-      <c r="AE78" s="78"/>
-      <c r="AF78" s="78"/>
-      <c r="AG78" s="78"/>
-      <c r="AH78" s="78"/>
-      <c r="AI78" s="78"/>
-      <c r="AJ78" s="78"/>
-      <c r="AK78" s="78"/>
-      <c r="AL78" s="78"/>
-      <c r="AM78" s="78"/>
-      <c r="AN78" s="78"/>
-      <c r="AO78" s="78"/>
-      <c r="AP78" s="78"/>
+      <c r="AD78" s="87"/>
+      <c r="AE78" s="87"/>
+      <c r="AF78" s="87"/>
+      <c r="AG78" s="87"/>
+      <c r="AH78" s="87"/>
+      <c r="AI78" s="87"/>
+      <c r="AJ78" s="87"/>
+      <c r="AK78" s="87"/>
+      <c r="AL78" s="87"/>
+      <c r="AM78" s="87"/>
+      <c r="AN78" s="87"/>
+      <c r="AO78" s="87"/>
+      <c r="AP78" s="87"/>
     </row>
     <row r="79" spans="14:42" x14ac:dyDescent="0.55000000000000004">
-      <c r="AC79" s="78"/>
-      <c r="AD79" s="78"/>
-      <c r="AE79" s="78"/>
-      <c r="AF79" s="78"/>
-      <c r="AG79" s="78"/>
-      <c r="AH79" s="78"/>
-      <c r="AI79" s="78"/>
-      <c r="AJ79" s="78"/>
-      <c r="AK79" s="78"/>
-      <c r="AL79" s="78"/>
-      <c r="AM79" s="78"/>
-      <c r="AN79" s="78"/>
-      <c r="AO79" s="78"/>
-      <c r="AP79" s="78"/>
+      <c r="AC79" s="87"/>
+      <c r="AD79" s="87"/>
+      <c r="AE79" s="87"/>
+      <c r="AF79" s="87"/>
+      <c r="AG79" s="87"/>
+      <c r="AH79" s="87"/>
+      <c r="AI79" s="87"/>
+      <c r="AJ79" s="87"/>
+      <c r="AK79" s="87"/>
+      <c r="AL79" s="87"/>
+      <c r="AM79" s="87"/>
+      <c r="AN79" s="87"/>
+      <c r="AO79" s="87"/>
+      <c r="AP79" s="87"/>
     </row>
     <row r="81" spans="3:26" x14ac:dyDescent="0.55000000000000004">
       <c r="E81" s="60"/>
@@ -37307,42 +37307,42 @@
       <c r="Z90" s="62"/>
     </row>
     <row r="97" spans="5:44" x14ac:dyDescent="0.55000000000000004">
-      <c r="AD97" s="79" t="s">
+      <c r="AD97" s="88" t="s">
         <v>169</v>
       </c>
-      <c r="AE97" s="79"/>
-      <c r="AF97" s="79"/>
-      <c r="AG97" s="79"/>
-      <c r="AH97" s="79"/>
-      <c r="AI97" s="79"/>
-      <c r="AJ97" s="79"/>
-      <c r="AK97" s="79"/>
-      <c r="AL97" s="79"/>
-      <c r="AM97" s="79"/>
-      <c r="AN97" s="79"/>
-      <c r="AO97" s="79"/>
-      <c r="AP97" s="79"/>
-      <c r="AQ97" s="79"/>
-      <c r="AR97" s="79"/>
+      <c r="AE97" s="88"/>
+      <c r="AF97" s="88"/>
+      <c r="AG97" s="88"/>
+      <c r="AH97" s="88"/>
+      <c r="AI97" s="88"/>
+      <c r="AJ97" s="88"/>
+      <c r="AK97" s="88"/>
+      <c r="AL97" s="88"/>
+      <c r="AM97" s="88"/>
+      <c r="AN97" s="88"/>
+      <c r="AO97" s="88"/>
+      <c r="AP97" s="88"/>
+      <c r="AQ97" s="88"/>
+      <c r="AR97" s="88"/>
     </row>
     <row r="98" spans="5:44" x14ac:dyDescent="0.55000000000000004">
-      <c r="AD98" s="78" t="s">
+      <c r="AD98" s="87" t="s">
         <v>172</v>
       </c>
-      <c r="AE98" s="78"/>
-      <c r="AF98" s="78"/>
-      <c r="AG98" s="78"/>
-      <c r="AH98" s="78"/>
-      <c r="AI98" s="78"/>
-      <c r="AJ98" s="78"/>
-      <c r="AK98" s="78"/>
-      <c r="AL98" s="78"/>
-      <c r="AM98" s="78"/>
-      <c r="AN98" s="78"/>
-      <c r="AO98" s="78"/>
-      <c r="AP98" s="78"/>
-      <c r="AQ98" s="78"/>
-      <c r="AR98" s="78"/>
+      <c r="AE98" s="87"/>
+      <c r="AF98" s="87"/>
+      <c r="AG98" s="87"/>
+      <c r="AH98" s="87"/>
+      <c r="AI98" s="87"/>
+      <c r="AJ98" s="87"/>
+      <c r="AK98" s="87"/>
+      <c r="AL98" s="87"/>
+      <c r="AM98" s="87"/>
+      <c r="AN98" s="87"/>
+      <c r="AO98" s="87"/>
+      <c r="AP98" s="87"/>
+      <c r="AQ98" s="87"/>
+      <c r="AR98" s="87"/>
     </row>
     <row r="99" spans="5:44" x14ac:dyDescent="0.55000000000000004">
       <c r="N99" s="60">
@@ -37679,42 +37679,42 @@
       <c r="L120" s="60"/>
     </row>
     <row r="121" spans="3:34" x14ac:dyDescent="0.55000000000000004">
-      <c r="Z121" s="97" t="s">
+      <c r="Z121" s="105" t="s">
         <v>173</v>
       </c>
-      <c r="AA121" s="106"/>
-      <c r="AB121" s="106"/>
-      <c r="AC121" s="106"/>
-      <c r="AD121" s="106"/>
-      <c r="AE121" s="106"/>
-      <c r="AF121" s="106"/>
-      <c r="AG121" s="106"/>
-      <c r="AH121" s="107"/>
+      <c r="AA121" s="112"/>
+      <c r="AB121" s="112"/>
+      <c r="AC121" s="112"/>
+      <c r="AD121" s="112"/>
+      <c r="AE121" s="112"/>
+      <c r="AF121" s="112"/>
+      <c r="AG121" s="112"/>
+      <c r="AH121" s="113"/>
     </row>
     <row r="122" spans="3:34" x14ac:dyDescent="0.55000000000000004">
-      <c r="Z122" s="80" t="s">
+      <c r="Z122" s="89" t="s">
         <v>174</v>
       </c>
-      <c r="AA122" s="81"/>
-      <c r="AB122" s="81"/>
-      <c r="AC122" s="81"/>
-      <c r="AD122" s="81"/>
-      <c r="AE122" s="81"/>
-      <c r="AF122" s="81"/>
-      <c r="AG122" s="81"/>
-      <c r="AH122" s="82"/>
+      <c r="AA122" s="90"/>
+      <c r="AB122" s="90"/>
+      <c r="AC122" s="90"/>
+      <c r="AD122" s="90"/>
+      <c r="AE122" s="90"/>
+      <c r="AF122" s="90"/>
+      <c r="AG122" s="90"/>
+      <c r="AH122" s="91"/>
     </row>
     <row r="124" spans="3:34" x14ac:dyDescent="0.55000000000000004">
-      <c r="Z124" s="95" t="s">
+      <c r="Z124" s="93" t="s">
         <v>179</v>
       </c>
-      <c r="AA124" s="95"/>
-      <c r="AB124" s="95"/>
-      <c r="AC124" s="95"/>
-      <c r="AD124" s="95"/>
-      <c r="AE124" s="95"/>
-      <c r="AF124" s="95"/>
-      <c r="AG124" s="95"/>
+      <c r="AA124" s="93"/>
+      <c r="AB124" s="93"/>
+      <c r="AC124" s="93"/>
+      <c r="AD124" s="93"/>
+      <c r="AE124" s="93"/>
+      <c r="AF124" s="93"/>
+      <c r="AG124" s="93"/>
     </row>
     <row r="125" spans="3:34" x14ac:dyDescent="0.55000000000000004">
       <c r="O125" s="60"/>
@@ -37973,6 +37973,8 @@
     <mergeCell ref="N6:X6"/>
     <mergeCell ref="N7:X8"/>
     <mergeCell ref="N9:X10"/>
+    <mergeCell ref="N33:T33"/>
+    <mergeCell ref="N32:T32"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="H9:M10"/>
@@ -37981,7 +37983,6 @@
     <mergeCell ref="C9:G10"/>
     <mergeCell ref="H5:M5"/>
     <mergeCell ref="H6:M6"/>
-    <mergeCell ref="N33:T33"/>
     <mergeCell ref="Y7:AN8"/>
     <mergeCell ref="C15:G16"/>
     <mergeCell ref="H15:M16"/>
@@ -37993,7 +37994,6 @@
     <mergeCell ref="H13:M14"/>
     <mergeCell ref="N11:X12"/>
     <mergeCell ref="Y11:AN14"/>
-    <mergeCell ref="N32:T32"/>
     <mergeCell ref="AC78:AP79"/>
     <mergeCell ref="AC77:AP77"/>
     <mergeCell ref="U58:AC58"/>
@@ -38169,41 +38169,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A468622B-6F54-43DB-B9B7-C8BDB746F974}">
   <dimension ref="A1:AT73"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
+      <selection activeCell="AE47" sqref="AE47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.23046875" defaultRowHeight="25.2" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:26" ht="25.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="81" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="131"/>
-      <c r="P1" s="131"/>
-      <c r="Q1" s="131"/>
-      <c r="R1" s="131"/>
-      <c r="S1" s="131"/>
-      <c r="T1" s="131"/>
-      <c r="U1" s="131"/>
-      <c r="V1" s="131"/>
-      <c r="W1" s="131"/>
-      <c r="X1" s="131"/>
-      <c r="Y1" s="131"/>
-      <c r="Z1" s="131"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
+      <c r="X1" s="80"/>
+      <c r="Y1" s="80"/>
+      <c r="Z1" s="80"/>
     </row>
     <row r="3" spans="1:26" ht="25.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="65" t="s">
@@ -38234,196 +38234,196 @@
       <c r="Y3" s="62"/>
     </row>
     <row r="5" spans="1:26" ht="25.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C5" s="97" t="s">
+      <c r="C5" s="105" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="97" t="s">
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="105" t="s">
         <v>114</v>
       </c>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="106"/>
-      <c r="L5" s="106"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="97" t="s">
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="112"/>
+      <c r="M5" s="113"/>
+      <c r="N5" s="105" t="s">
         <v>113</v>
       </c>
-      <c r="O5" s="98"/>
-      <c r="P5" s="98"/>
-      <c r="Q5" s="98"/>
-      <c r="R5" s="98"/>
-      <c r="S5" s="98"/>
-      <c r="T5" s="98"/>
-      <c r="U5" s="98"/>
-      <c r="V5" s="98"/>
-      <c r="W5" s="98"/>
-      <c r="X5" s="99"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="106"/>
+      <c r="T5" s="106"/>
+      <c r="U5" s="106"/>
+      <c r="V5" s="106"/>
+      <c r="W5" s="106"/>
+      <c r="X5" s="107"/>
     </row>
     <row r="6" spans="1:26" ht="25.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C6" s="100" t="s">
+      <c r="C6" s="108" t="s">
         <v>176</v>
       </c>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="89" t="s">
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="100" t="s">
         <v>129</v>
       </c>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="133"/>
-      <c r="N6" s="152" t="s">
+      <c r="I6" s="101"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="101"/>
+      <c r="M6" s="120"/>
+      <c r="N6" s="127" t="s">
         <v>171</v>
       </c>
-      <c r="O6" s="152"/>
-      <c r="P6" s="152"/>
-      <c r="Q6" s="152"/>
-      <c r="R6" s="152"/>
-      <c r="S6" s="152"/>
-      <c r="T6" s="152"/>
-      <c r="U6" s="152"/>
-      <c r="V6" s="152"/>
-      <c r="W6" s="152"/>
-      <c r="X6" s="152"/>
+      <c r="O6" s="127"/>
+      <c r="P6" s="127"/>
+      <c r="Q6" s="127"/>
+      <c r="R6" s="127"/>
+      <c r="S6" s="127"/>
+      <c r="T6" s="127"/>
+      <c r="U6" s="127"/>
+      <c r="V6" s="127"/>
+      <c r="W6" s="127"/>
+      <c r="X6" s="127"/>
     </row>
     <row r="7" spans="1:26" ht="25.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="134"/>
-      <c r="N7" s="152"/>
-      <c r="O7" s="152"/>
-      <c r="P7" s="152"/>
-      <c r="Q7" s="152"/>
-      <c r="R7" s="152"/>
-      <c r="S7" s="152"/>
-      <c r="T7" s="152"/>
-      <c r="U7" s="152"/>
-      <c r="V7" s="152"/>
-      <c r="W7" s="152"/>
-      <c r="X7" s="152"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="121"/>
+      <c r="N7" s="127"/>
+      <c r="O7" s="127"/>
+      <c r="P7" s="127"/>
+      <c r="Q7" s="127"/>
+      <c r="R7" s="127"/>
+      <c r="S7" s="127"/>
+      <c r="T7" s="127"/>
+      <c r="U7" s="127"/>
+      <c r="V7" s="127"/>
+      <c r="W7" s="127"/>
+      <c r="X7" s="127"/>
     </row>
     <row r="8" spans="1:26" ht="25.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C8" s="146" t="s">
+      <c r="C8" s="129" t="s">
         <v>184</v>
       </c>
-      <c r="D8" s="147"/>
-      <c r="E8" s="147"/>
-      <c r="F8" s="147"/>
-      <c r="G8" s="148"/>
-      <c r="H8" s="135" t="s">
+      <c r="D8" s="130"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="131"/>
+      <c r="H8" s="128" t="s">
         <v>177</v>
       </c>
-      <c r="I8" s="90"/>
-      <c r="J8" s="90"/>
-      <c r="K8" s="90"/>
-      <c r="L8" s="90"/>
-      <c r="M8" s="133"/>
-      <c r="N8" s="135" t="s">
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="120"/>
+      <c r="N8" s="128" t="s">
         <v>186</v>
       </c>
-      <c r="O8" s="136"/>
-      <c r="P8" s="136"/>
-      <c r="Q8" s="136"/>
-      <c r="R8" s="136"/>
-      <c r="S8" s="136"/>
-      <c r="T8" s="136"/>
-      <c r="U8" s="136"/>
-      <c r="V8" s="136"/>
-      <c r="W8" s="136"/>
-      <c r="X8" s="137"/>
+      <c r="O8" s="135"/>
+      <c r="P8" s="135"/>
+      <c r="Q8" s="135"/>
+      <c r="R8" s="135"/>
+      <c r="S8" s="135"/>
+      <c r="T8" s="135"/>
+      <c r="U8" s="135"/>
+      <c r="V8" s="135"/>
+      <c r="W8" s="135"/>
+      <c r="X8" s="136"/>
     </row>
     <row r="9" spans="1:26" ht="25.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" s="149"/>
-      <c r="D9" s="150"/>
-      <c r="E9" s="150"/>
-      <c r="F9" s="150"/>
-      <c r="G9" s="151"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="92"/>
-      <c r="M9" s="134"/>
-      <c r="N9" s="138"/>
-      <c r="O9" s="139"/>
-      <c r="P9" s="139"/>
-      <c r="Q9" s="139"/>
-      <c r="R9" s="139"/>
-      <c r="S9" s="139"/>
-      <c r="T9" s="139"/>
-      <c r="U9" s="139"/>
-      <c r="V9" s="139"/>
-      <c r="W9" s="139"/>
-      <c r="X9" s="140"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="133"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="133"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="103"/>
+      <c r="J9" s="103"/>
+      <c r="K9" s="103"/>
+      <c r="L9" s="103"/>
+      <c r="M9" s="121"/>
+      <c r="N9" s="137"/>
+      <c r="O9" s="138"/>
+      <c r="P9" s="138"/>
+      <c r="Q9" s="138"/>
+      <c r="R9" s="138"/>
+      <c r="S9" s="138"/>
+      <c r="T9" s="138"/>
+      <c r="U9" s="138"/>
+      <c r="V9" s="138"/>
+      <c r="W9" s="138"/>
+      <c r="X9" s="139"/>
     </row>
     <row r="10" spans="1:26" ht="25.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C10" s="83" t="s">
+      <c r="C10" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="141"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="141"/>
-      <c r="G10" s="142"/>
-      <c r="H10" s="89" t="s">
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="100" t="s">
         <v>145</v>
       </c>
-      <c r="I10" s="90"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="90"/>
-      <c r="L10" s="90"/>
-      <c r="M10" s="133"/>
-      <c r="N10" s="135" t="s">
+      <c r="I10" s="101"/>
+      <c r="J10" s="101"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="120"/>
+      <c r="N10" s="128" t="s">
         <v>178</v>
       </c>
-      <c r="O10" s="90"/>
-      <c r="P10" s="90"/>
-      <c r="Q10" s="90"/>
-      <c r="R10" s="90"/>
-      <c r="S10" s="90"/>
-      <c r="T10" s="90"/>
-      <c r="U10" s="90"/>
-      <c r="V10" s="90"/>
-      <c r="W10" s="90"/>
-      <c r="X10" s="133"/>
+      <c r="O10" s="101"/>
+      <c r="P10" s="101"/>
+      <c r="Q10" s="101"/>
+      <c r="R10" s="101"/>
+      <c r="S10" s="101"/>
+      <c r="T10" s="101"/>
+      <c r="U10" s="101"/>
+      <c r="V10" s="101"/>
+      <c r="W10" s="101"/>
+      <c r="X10" s="120"/>
     </row>
     <row r="11" spans="1:26" ht="25.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C11" s="143"/>
-      <c r="D11" s="144"/>
-      <c r="E11" s="144"/>
-      <c r="F11" s="144"/>
-      <c r="G11" s="145"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="134"/>
-      <c r="N11" s="91"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="92"/>
-      <c r="Q11" s="92"/>
-      <c r="R11" s="92"/>
-      <c r="S11" s="92"/>
-      <c r="T11" s="92"/>
-      <c r="U11" s="92"/>
-      <c r="V11" s="92"/>
-      <c r="W11" s="92"/>
-      <c r="X11" s="134"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="126"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="103"/>
+      <c r="K11" s="103"/>
+      <c r="L11" s="103"/>
+      <c r="M11" s="121"/>
+      <c r="N11" s="102"/>
+      <c r="O11" s="103"/>
+      <c r="P11" s="103"/>
+      <c r="Q11" s="103"/>
+      <c r="R11" s="103"/>
+      <c r="S11" s="103"/>
+      <c r="T11" s="103"/>
+      <c r="U11" s="103"/>
+      <c r="V11" s="103"/>
+      <c r="W11" s="103"/>
+      <c r="X11" s="121"/>
     </row>
     <row r="12" spans="1:26" ht="25.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="69"/>
@@ -38500,30 +38500,30 @@
       <c r="M17" s="60"/>
     </row>
     <row r="18" spans="2:39" ht="25.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="Y18" s="97" t="s">
+      <c r="Y18" s="105" t="s">
         <v>173</v>
       </c>
-      <c r="Z18" s="106"/>
-      <c r="AA18" s="106"/>
-      <c r="AB18" s="106"/>
-      <c r="AC18" s="106"/>
-      <c r="AD18" s="106"/>
-      <c r="AE18" s="106"/>
-      <c r="AF18" s="106"/>
-      <c r="AG18" s="107"/>
+      <c r="Z18" s="112"/>
+      <c r="AA18" s="112"/>
+      <c r="AB18" s="112"/>
+      <c r="AC18" s="112"/>
+      <c r="AD18" s="112"/>
+      <c r="AE18" s="112"/>
+      <c r="AF18" s="112"/>
+      <c r="AG18" s="113"/>
     </row>
     <row r="19" spans="2:39" ht="25.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="Y19" s="80" t="s">
+      <c r="Y19" s="89" t="s">
         <v>174</v>
       </c>
-      <c r="Z19" s="81"/>
-      <c r="AA19" s="81"/>
-      <c r="AB19" s="81"/>
-      <c r="AC19" s="81"/>
-      <c r="AD19" s="81"/>
-      <c r="AE19" s="81"/>
-      <c r="AF19" s="81"/>
-      <c r="AG19" s="82"/>
+      <c r="Z19" s="90"/>
+      <c r="AA19" s="90"/>
+      <c r="AB19" s="90"/>
+      <c r="AC19" s="90"/>
+      <c r="AD19" s="90"/>
+      <c r="AE19" s="90"/>
+      <c r="AF19" s="90"/>
+      <c r="AG19" s="91"/>
     </row>
     <row r="22" spans="2:39" ht="25.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="P22" s="60"/>
@@ -38533,23 +38533,23 @@
       <c r="T22" s="60"/>
       <c r="U22" s="60"/>
       <c r="V22" s="60"/>
-      <c r="Y22" s="79" t="s">
+      <c r="Y22" s="88" t="s">
         <v>182</v>
       </c>
-      <c r="Z22" s="79"/>
-      <c r="AA22" s="79"/>
-      <c r="AB22" s="79"/>
-      <c r="AC22" s="79"/>
-      <c r="AD22" s="79"/>
-      <c r="AE22" s="79"/>
-      <c r="AF22" s="79"/>
-      <c r="AG22" s="79"/>
-      <c r="AH22" s="79"/>
-      <c r="AI22" s="79"/>
-      <c r="AJ22" s="79"/>
-      <c r="AK22" s="79"/>
-      <c r="AL22" s="79"/>
-      <c r="AM22" s="79"/>
+      <c r="Z22" s="88"/>
+      <c r="AA22" s="88"/>
+      <c r="AB22" s="88"/>
+      <c r="AC22" s="88"/>
+      <c r="AD22" s="88"/>
+      <c r="AE22" s="88"/>
+      <c r="AF22" s="88"/>
+      <c r="AG22" s="88"/>
+      <c r="AH22" s="88"/>
+      <c r="AI22" s="88"/>
+      <c r="AJ22" s="88"/>
+      <c r="AK22" s="88"/>
+      <c r="AL22" s="88"/>
+      <c r="AM22" s="88"/>
     </row>
     <row r="23" spans="2:39" ht="25.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="P23" s="60"/>
@@ -38559,23 +38559,23 @@
       <c r="T23" s="60"/>
       <c r="U23" s="60"/>
       <c r="V23" s="60"/>
-      <c r="Y23" s="77" t="s">
+      <c r="Y23" s="86" t="s">
         <v>181</v>
       </c>
-      <c r="Z23" s="77"/>
-      <c r="AA23" s="77"/>
-      <c r="AB23" s="77"/>
-      <c r="AC23" s="77"/>
-      <c r="AD23" s="77"/>
-      <c r="AE23" s="77"/>
-      <c r="AF23" s="77"/>
-      <c r="AG23" s="77"/>
-      <c r="AH23" s="77"/>
-      <c r="AI23" s="77"/>
-      <c r="AJ23" s="77"/>
-      <c r="AK23" s="77"/>
-      <c r="AL23" s="77"/>
-      <c r="AM23" s="77"/>
+      <c r="Z23" s="86"/>
+      <c r="AA23" s="86"/>
+      <c r="AB23" s="86"/>
+      <c r="AC23" s="86"/>
+      <c r="AD23" s="86"/>
+      <c r="AE23" s="86"/>
+      <c r="AF23" s="86"/>
+      <c r="AG23" s="86"/>
+      <c r="AH23" s="86"/>
+      <c r="AI23" s="86"/>
+      <c r="AJ23" s="86"/>
+      <c r="AK23" s="86"/>
+      <c r="AL23" s="86"/>
+      <c r="AM23" s="86"/>
     </row>
     <row r="24" spans="2:39" ht="25.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="P24" s="60"/>
@@ -38585,21 +38585,21 @@
       <c r="T24" s="60"/>
       <c r="U24" s="60"/>
       <c r="V24" s="60"/>
-      <c r="Y24" s="77"/>
-      <c r="Z24" s="77"/>
-      <c r="AA24" s="77"/>
-      <c r="AB24" s="77"/>
-      <c r="AC24" s="77"/>
-      <c r="AD24" s="77"/>
-      <c r="AE24" s="77"/>
-      <c r="AF24" s="77"/>
-      <c r="AG24" s="77"/>
-      <c r="AH24" s="77"/>
-      <c r="AI24" s="77"/>
-      <c r="AJ24" s="77"/>
-      <c r="AK24" s="77"/>
-      <c r="AL24" s="77"/>
-      <c r="AM24" s="77"/>
+      <c r="Y24" s="86"/>
+      <c r="Z24" s="86"/>
+      <c r="AA24" s="86"/>
+      <c r="AB24" s="86"/>
+      <c r="AC24" s="86"/>
+      <c r="AD24" s="86"/>
+      <c r="AE24" s="86"/>
+      <c r="AF24" s="86"/>
+      <c r="AG24" s="86"/>
+      <c r="AH24" s="86"/>
+      <c r="AI24" s="86"/>
+      <c r="AJ24" s="86"/>
+      <c r="AK24" s="86"/>
+      <c r="AL24" s="86"/>
+      <c r="AM24" s="86"/>
     </row>
     <row r="25" spans="2:39" ht="25.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="P25" s="60"/>
@@ -38737,30 +38737,30 @@
       <c r="M34" s="60"/>
     </row>
     <row r="36" spans="4:33" ht="25.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="Y36" s="97" t="s">
+      <c r="Y36" s="105" t="s">
         <v>187</v>
       </c>
-      <c r="Z36" s="106"/>
-      <c r="AA36" s="106"/>
-      <c r="AB36" s="106"/>
-      <c r="AC36" s="106"/>
-      <c r="AD36" s="106"/>
-      <c r="AE36" s="106"/>
-      <c r="AF36" s="106"/>
-      <c r="AG36" s="107"/>
+      <c r="Z36" s="112"/>
+      <c r="AA36" s="112"/>
+      <c r="AB36" s="112"/>
+      <c r="AC36" s="112"/>
+      <c r="AD36" s="112"/>
+      <c r="AE36" s="112"/>
+      <c r="AF36" s="112"/>
+      <c r="AG36" s="113"/>
     </row>
     <row r="37" spans="4:33" ht="25.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="Y37" s="80" t="s">
+      <c r="Y37" s="89" t="s">
         <v>188</v>
       </c>
-      <c r="Z37" s="81"/>
-      <c r="AA37" s="81"/>
-      <c r="AB37" s="81"/>
-      <c r="AC37" s="81"/>
-      <c r="AD37" s="81"/>
-      <c r="AE37" s="81"/>
-      <c r="AF37" s="81"/>
-      <c r="AG37" s="82"/>
+      <c r="Z37" s="90"/>
+      <c r="AA37" s="90"/>
+      <c r="AB37" s="90"/>
+      <c r="AC37" s="90"/>
+      <c r="AD37" s="90"/>
+      <c r="AE37" s="90"/>
+      <c r="AF37" s="90"/>
+      <c r="AG37" s="91"/>
     </row>
     <row r="39" spans="4:33" ht="25.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="P39" s="60"/>
@@ -38875,7 +38875,7 @@
     </row>
     <row r="49" spans="2:46" ht="25.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="65" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C49" s="62"/>
       <c r="D49" s="62"/>
@@ -38902,92 +38902,92 @@
       <c r="Y49" s="62"/>
     </row>
     <row r="51" spans="2:46" ht="25.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="R51" s="156"/>
-      <c r="S51" s="156"/>
-      <c r="T51" s="156"/>
+      <c r="R51" s="85"/>
+      <c r="S51" s="85"/>
+      <c r="T51" s="85"/>
     </row>
     <row r="53" spans="2:46" ht="25.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="AF53" s="79" t="s">
-        <v>190</v>
-      </c>
-      <c r="AG53" s="79"/>
-      <c r="AH53" s="79"/>
-      <c r="AI53" s="79"/>
-      <c r="AJ53" s="79"/>
-      <c r="AK53" s="79"/>
-      <c r="AL53" s="79"/>
-      <c r="AM53" s="79"/>
-      <c r="AN53" s="79"/>
-      <c r="AO53" s="79"/>
-      <c r="AP53" s="79"/>
-      <c r="AQ53" s="79"/>
-      <c r="AR53" s="79"/>
-      <c r="AS53" s="79"/>
-      <c r="AT53" s="79"/>
+      <c r="AF53" s="88" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG53" s="88"/>
+      <c r="AH53" s="88"/>
+      <c r="AI53" s="88"/>
+      <c r="AJ53" s="88"/>
+      <c r="AK53" s="88"/>
+      <c r="AL53" s="88"/>
+      <c r="AM53" s="88"/>
+      <c r="AN53" s="88"/>
+      <c r="AO53" s="88"/>
+      <c r="AP53" s="88"/>
+      <c r="AQ53" s="88"/>
+      <c r="AR53" s="88"/>
+      <c r="AS53" s="88"/>
+      <c r="AT53" s="88"/>
     </row>
     <row r="54" spans="2:46" ht="25.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="AF54" s="77" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG54" s="77"/>
-      <c r="AH54" s="77"/>
-      <c r="AI54" s="77"/>
-      <c r="AJ54" s="77"/>
-      <c r="AK54" s="77"/>
-      <c r="AL54" s="77"/>
-      <c r="AM54" s="77"/>
-      <c r="AN54" s="77"/>
-      <c r="AO54" s="77"/>
-      <c r="AP54" s="77"/>
-      <c r="AQ54" s="77"/>
-      <c r="AR54" s="77"/>
-      <c r="AS54" s="77"/>
-      <c r="AT54" s="77"/>
+      <c r="AF54" s="86" t="s">
+        <v>190</v>
+      </c>
+      <c r="AG54" s="86"/>
+      <c r="AH54" s="86"/>
+      <c r="AI54" s="86"/>
+      <c r="AJ54" s="86"/>
+      <c r="AK54" s="86"/>
+      <c r="AL54" s="86"/>
+      <c r="AM54" s="86"/>
+      <c r="AN54" s="86"/>
+      <c r="AO54" s="86"/>
+      <c r="AP54" s="86"/>
+      <c r="AQ54" s="86"/>
+      <c r="AR54" s="86"/>
+      <c r="AS54" s="86"/>
+      <c r="AT54" s="86"/>
     </row>
     <row r="55" spans="2:46" ht="25.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="AF55" s="77"/>
-      <c r="AG55" s="77"/>
-      <c r="AH55" s="77"/>
-      <c r="AI55" s="77"/>
-      <c r="AJ55" s="77"/>
-      <c r="AK55" s="77"/>
-      <c r="AL55" s="77"/>
-      <c r="AM55" s="77"/>
-      <c r="AN55" s="77"/>
-      <c r="AO55" s="77"/>
-      <c r="AP55" s="77"/>
-      <c r="AQ55" s="77"/>
-      <c r="AR55" s="77"/>
-      <c r="AS55" s="77"/>
-      <c r="AT55" s="77"/>
+      <c r="AF55" s="86"/>
+      <c r="AG55" s="86"/>
+      <c r="AH55" s="86"/>
+      <c r="AI55" s="86"/>
+      <c r="AJ55" s="86"/>
+      <c r="AK55" s="86"/>
+      <c r="AL55" s="86"/>
+      <c r="AM55" s="86"/>
+      <c r="AN55" s="86"/>
+      <c r="AO55" s="86"/>
+      <c r="AP55" s="86"/>
+      <c r="AQ55" s="86"/>
+      <c r="AR55" s="86"/>
+      <c r="AS55" s="86"/>
+      <c r="AT55" s="86"/>
     </row>
     <row r="56" spans="2:46" ht="25.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="W56" s="155"/>
-      <c r="X56" s="155"/>
+      <c r="W56" s="84"/>
+      <c r="X56" s="84"/>
       <c r="Y56" s="60"/>
       <c r="Z56" s="60"/>
       <c r="AA56" s="60"/>
       <c r="AB56" s="60"/>
       <c r="AC56" s="60"/>
-      <c r="AF56" s="77"/>
-      <c r="AG56" s="77"/>
-      <c r="AH56" s="77"/>
-      <c r="AI56" s="77"/>
-      <c r="AJ56" s="77"/>
-      <c r="AK56" s="77"/>
-      <c r="AL56" s="77"/>
-      <c r="AM56" s="77"/>
-      <c r="AN56" s="77"/>
-      <c r="AO56" s="77"/>
-      <c r="AP56" s="77"/>
-      <c r="AQ56" s="77"/>
-      <c r="AR56" s="77"/>
-      <c r="AS56" s="77"/>
-      <c r="AT56" s="77"/>
+      <c r="AF56" s="86"/>
+      <c r="AG56" s="86"/>
+      <c r="AH56" s="86"/>
+      <c r="AI56" s="86"/>
+      <c r="AJ56" s="86"/>
+      <c r="AK56" s="86"/>
+      <c r="AL56" s="86"/>
+      <c r="AM56" s="86"/>
+      <c r="AN56" s="86"/>
+      <c r="AO56" s="86"/>
+      <c r="AP56" s="86"/>
+      <c r="AQ56" s="86"/>
+      <c r="AR56" s="86"/>
+      <c r="AS56" s="86"/>
+      <c r="AT56" s="86"/>
     </row>
     <row r="57" spans="2:46" ht="25.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="W57" s="154"/>
-      <c r="X57" s="154"/>
+      <c r="W57" s="83"/>
+      <c r="X57" s="83"/>
       <c r="Y57" s="60"/>
       <c r="Z57" s="60"/>
       <c r="AA57" s="60"/>
@@ -38995,8 +38995,8 @@
       <c r="AC57" s="60"/>
     </row>
     <row r="58" spans="2:46" ht="25.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="W58" s="154"/>
-      <c r="X58" s="154"/>
+      <c r="W58" s="83"/>
+      <c r="X58" s="83"/>
       <c r="Y58" s="60"/>
       <c r="Z58" s="60"/>
       <c r="AA58" s="60"/>
@@ -39004,8 +39004,8 @@
       <c r="AC58" s="60"/>
     </row>
     <row r="59" spans="2:46" ht="25.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="W59" s="154"/>
-      <c r="X59" s="154"/>
+      <c r="W59" s="83"/>
+      <c r="X59" s="83"/>
       <c r="Y59" s="60"/>
       <c r="Z59" s="60"/>
       <c r="AA59" s="60"/>
@@ -39013,8 +39013,8 @@
       <c r="AC59" s="60"/>
     </row>
     <row r="60" spans="2:46" ht="25.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="W60" s="154"/>
-      <c r="X60" s="154"/>
+      <c r="W60" s="83"/>
+      <c r="X60" s="83"/>
       <c r="Y60" s="60"/>
       <c r="Z60" s="60"/>
       <c r="AA60" s="60"/>
@@ -39024,25 +39024,25 @@
     <row r="61" spans="2:46" ht="25.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D61" s="60"/>
       <c r="E61" s="60"/>
-      <c r="F61" s="153"/>
-      <c r="G61" s="153"/>
-      <c r="H61" s="153"/>
-      <c r="I61" s="153"/>
-      <c r="J61" s="153"/>
-      <c r="K61" s="153"/>
-      <c r="L61" s="153"/>
-      <c r="M61" s="153"/>
-      <c r="N61" s="153"/>
-      <c r="O61" s="153"/>
-      <c r="P61" s="153"/>
-      <c r="Q61" s="153"/>
-      <c r="R61" s="153"/>
-      <c r="S61" s="153"/>
-      <c r="T61" s="153"/>
-      <c r="U61" s="153"/>
-      <c r="V61" s="153"/>
-      <c r="W61" s="154"/>
-      <c r="X61" s="154"/>
+      <c r="F61" s="82"/>
+      <c r="G61" s="82"/>
+      <c r="H61" s="82"/>
+      <c r="I61" s="82"/>
+      <c r="J61" s="82"/>
+      <c r="K61" s="82"/>
+      <c r="L61" s="82"/>
+      <c r="M61" s="82"/>
+      <c r="N61" s="82"/>
+      <c r="O61" s="82"/>
+      <c r="P61" s="82"/>
+      <c r="Q61" s="82"/>
+      <c r="R61" s="82"/>
+      <c r="S61" s="82"/>
+      <c r="T61" s="82"/>
+      <c r="U61" s="82"/>
+      <c r="V61" s="82"/>
+      <c r="W61" s="83"/>
+      <c r="X61" s="83"/>
       <c r="Y61" s="60"/>
       <c r="Z61" s="60"/>
       <c r="AA61" s="60"/>
@@ -39053,25 +39053,25 @@
     <row r="62" spans="2:46" ht="25.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D62" s="60"/>
       <c r="E62" s="60"/>
-      <c r="F62" s="154"/>
-      <c r="G62" s="154"/>
-      <c r="H62" s="154"/>
-      <c r="I62" s="154"/>
-      <c r="J62" s="154"/>
-      <c r="K62" s="154"/>
-      <c r="L62" s="154"/>
-      <c r="M62" s="154"/>
-      <c r="N62" s="154"/>
-      <c r="O62" s="154"/>
-      <c r="P62" s="154"/>
-      <c r="Q62" s="154"/>
-      <c r="R62" s="154"/>
-      <c r="S62" s="154"/>
-      <c r="T62" s="154"/>
-      <c r="U62" s="154"/>
-      <c r="V62" s="154"/>
-      <c r="W62" s="154"/>
-      <c r="X62" s="154"/>
+      <c r="F62" s="83"/>
+      <c r="G62" s="83"/>
+      <c r="H62" s="83"/>
+      <c r="I62" s="83"/>
+      <c r="J62" s="83"/>
+      <c r="K62" s="83"/>
+      <c r="L62" s="83"/>
+      <c r="M62" s="83"/>
+      <c r="N62" s="83"/>
+      <c r="O62" s="83"/>
+      <c r="P62" s="83"/>
+      <c r="Q62" s="83"/>
+      <c r="R62" s="83"/>
+      <c r="S62" s="83"/>
+      <c r="T62" s="83"/>
+      <c r="U62" s="83"/>
+      <c r="V62" s="83"/>
+      <c r="W62" s="83"/>
+      <c r="X62" s="83"/>
       <c r="Y62" s="60"/>
       <c r="Z62" s="60"/>
       <c r="AA62" s="60"/>
@@ -39082,24 +39082,24 @@
     <row r="63" spans="2:46" ht="25.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D63" s="60"/>
       <c r="E63" s="60"/>
-      <c r="F63" s="154"/>
-      <c r="G63" s="154"/>
-      <c r="H63" s="154"/>
-      <c r="I63" s="154"/>
-      <c r="J63" s="154"/>
-      <c r="K63" s="154"/>
-      <c r="L63" s="154"/>
-      <c r="M63" s="154"/>
-      <c r="N63" s="154"/>
-      <c r="O63" s="154"/>
-      <c r="P63" s="154"/>
-      <c r="Q63" s="154"/>
-      <c r="R63" s="154"/>
-      <c r="S63" s="154"/>
-      <c r="T63" s="154"/>
-      <c r="U63" s="154"/>
-      <c r="V63" s="154"/>
-      <c r="W63" s="154"/>
+      <c r="F63" s="83"/>
+      <c r="G63" s="83"/>
+      <c r="H63" s="83"/>
+      <c r="I63" s="83"/>
+      <c r="J63" s="83"/>
+      <c r="K63" s="83"/>
+      <c r="L63" s="83"/>
+      <c r="M63" s="83"/>
+      <c r="N63" s="83"/>
+      <c r="O63" s="83"/>
+      <c r="P63" s="83"/>
+      <c r="Q63" s="83"/>
+      <c r="R63" s="83"/>
+      <c r="S63" s="83"/>
+      <c r="T63" s="83"/>
+      <c r="U63" s="83"/>
+      <c r="V63" s="83"/>
+      <c r="W63" s="83"/>
       <c r="X63" s="60"/>
       <c r="Y63" s="60"/>
       <c r="Z63" s="60"/>
@@ -39110,7 +39110,7 @@
     </row>
     <row r="72" spans="2:25" ht="25.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B72" s="65" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C72" s="62"/>
       <c r="D72" s="62"/>
@@ -39138,7 +39138,7 @@
     </row>
     <row r="73" spans="2:25" ht="25.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B73" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -39150,10 +39150,6 @@
     <mergeCell ref="Y19:AG19"/>
     <mergeCell ref="Y23:AM24"/>
     <mergeCell ref="Y22:AM22"/>
-    <mergeCell ref="C10:G11"/>
-    <mergeCell ref="N6:X7"/>
-    <mergeCell ref="H6:M7"/>
-    <mergeCell ref="C6:G7"/>
     <mergeCell ref="Y18:AG18"/>
     <mergeCell ref="N10:X11"/>
     <mergeCell ref="C8:G9"/>
@@ -39163,10 +39159,15 @@
     <mergeCell ref="H5:M5"/>
     <mergeCell ref="N5:X5"/>
     <mergeCell ref="H10:M11"/>
+    <mergeCell ref="C10:G11"/>
+    <mergeCell ref="N6:X7"/>
+    <mergeCell ref="H6:M7"/>
+    <mergeCell ref="C6:G7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -39174,14 +39175,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45511EF6-DC3A-4303-BF07-7D5EA1C63C63}">
   <dimension ref="A1:BN85"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView topLeftCell="A46" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="AC37" sqref="AC37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69140625" defaultRowHeight="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:26" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="77" t="s">
         <v>154</v>
       </c>
       <c r="B1" s="66"/>
@@ -39239,78 +39240,78 @@
       <c r="Y3" s="62"/>
     </row>
     <row r="5" spans="1:26" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C5" s="113" t="s">
+      <c r="C5" s="140" t="s">
         <v>160</v>
       </c>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="95"/>
-      <c r="T5" s="95"/>
-      <c r="U5" s="95"/>
-      <c r="V5" s="95"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="93"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="93"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="93"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="93"/>
+      <c r="T5" s="93"/>
+      <c r="U5" s="93"/>
+      <c r="V5" s="93"/>
       <c r="Z5" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
-      <c r="N6" s="95"/>
-      <c r="O6" s="95"/>
-      <c r="P6" s="95"/>
-      <c r="Q6" s="95"/>
-      <c r="R6" s="95"/>
-      <c r="S6" s="95"/>
-      <c r="T6" s="95"/>
-      <c r="U6" s="95"/>
-      <c r="V6" s="95"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="93"/>
+      <c r="N6" s="93"/>
+      <c r="O6" s="93"/>
+      <c r="P6" s="93"/>
+      <c r="Q6" s="93"/>
+      <c r="R6" s="93"/>
+      <c r="S6" s="93"/>
+      <c r="T6" s="93"/>
+      <c r="U6" s="93"/>
+      <c r="V6" s="93"/>
       <c r="Z6" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="95"/>
-      <c r="N7" s="95"/>
-      <c r="O7" s="95"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="95"/>
-      <c r="R7" s="95"/>
-      <c r="S7" s="95"/>
-      <c r="T7" s="95"/>
-      <c r="U7" s="95"/>
-      <c r="V7" s="95"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="93"/>
+      <c r="M7" s="93"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="93"/>
+      <c r="P7" s="93"/>
+      <c r="Q7" s="93"/>
+      <c r="R7" s="93"/>
+      <c r="S7" s="93"/>
+      <c r="T7" s="93"/>
+      <c r="U7" s="93"/>
+      <c r="V7" s="93"/>
       <c r="Z7" t="s">
         <v>163</v>
       </c>
@@ -39344,26 +39345,26 @@
       <c r="Y9" s="62"/>
     </row>
     <row r="11" spans="1:26" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D11" s="114" t="s">
+      <c r="D11" s="141" t="s">
         <v>164</v>
       </c>
-      <c r="E11" s="95"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="95"/>
-      <c r="L11" s="95"/>
-      <c r="M11" s="95"/>
-      <c r="N11" s="95"/>
-      <c r="O11" s="95"/>
-      <c r="P11" s="95"/>
-      <c r="Q11" s="95"/>
-      <c r="R11" s="95"/>
-      <c r="S11" s="95"/>
-      <c r="T11" s="95"/>
-      <c r="U11" s="95"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="93"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="93"/>
+      <c r="N11" s="93"/>
+      <c r="O11" s="93"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="93"/>
+      <c r="R11" s="93"/>
+      <c r="S11" s="93"/>
+      <c r="T11" s="93"/>
+      <c r="U11" s="93"/>
     </row>
     <row r="13" spans="1:26" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="63" t="s">
@@ -39394,96 +39395,96 @@
       <c r="Y13" s="62"/>
     </row>
     <row r="15" spans="1:26" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="J15" s="115"/>
-      <c r="K15" s="116"/>
-      <c r="L15" s="125"/>
-      <c r="M15" s="126"/>
-      <c r="N15" s="125"/>
-      <c r="O15" s="126"/>
-      <c r="P15" s="125"/>
-      <c r="Q15" s="126"/>
-      <c r="R15" s="125"/>
-      <c r="S15" s="126"/>
-      <c r="T15" s="125"/>
-      <c r="U15" s="126"/>
-      <c r="V15" s="125"/>
-      <c r="W15" s="126"/>
+      <c r="J15" s="142"/>
+      <c r="K15" s="143"/>
+      <c r="L15" s="146"/>
+      <c r="M15" s="147"/>
+      <c r="N15" s="146"/>
+      <c r="O15" s="147"/>
+      <c r="P15" s="146"/>
+      <c r="Q15" s="147"/>
+      <c r="R15" s="146"/>
+      <c r="S15" s="147"/>
+      <c r="T15" s="146"/>
+      <c r="U15" s="147"/>
+      <c r="V15" s="146"/>
+      <c r="W15" s="147"/>
     </row>
     <row r="16" spans="1:26" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="J16" s="117"/>
-      <c r="K16" s="118"/>
-      <c r="L16" s="127"/>
-      <c r="M16" s="128"/>
-      <c r="N16" s="127"/>
-      <c r="O16" s="128"/>
-      <c r="P16" s="127"/>
-      <c r="Q16" s="128"/>
-      <c r="R16" s="127"/>
-      <c r="S16" s="128"/>
-      <c r="T16" s="127"/>
-      <c r="U16" s="128"/>
-      <c r="V16" s="127"/>
-      <c r="W16" s="128"/>
+      <c r="J16" s="144"/>
+      <c r="K16" s="145"/>
+      <c r="L16" s="148"/>
+      <c r="M16" s="149"/>
+      <c r="N16" s="148"/>
+      <c r="O16" s="149"/>
+      <c r="P16" s="148"/>
+      <c r="Q16" s="149"/>
+      <c r="R16" s="148"/>
+      <c r="S16" s="149"/>
+      <c r="T16" s="148"/>
+      <c r="U16" s="149"/>
+      <c r="V16" s="148"/>
+      <c r="W16" s="149"/>
     </row>
     <row r="17" spans="2:25" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D17" s="119" t="s">
+      <c r="D17" s="151" t="s">
         <v>154</v>
       </c>
-      <c r="E17" s="120"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="120"/>
-      <c r="I17" s="120"/>
-      <c r="J17" s="121" t="s">
+      <c r="E17" s="152"/>
+      <c r="F17" s="152"/>
+      <c r="G17" s="152"/>
+      <c r="H17" s="152"/>
+      <c r="I17" s="152"/>
+      <c r="J17" s="155" t="s">
         <v>51</v>
       </c>
-      <c r="K17" s="78"/>
-      <c r="L17" s="121" t="s">
+      <c r="K17" s="87"/>
+      <c r="L17" s="155" t="s">
         <v>51</v>
       </c>
-      <c r="M17" s="78"/>
-      <c r="N17" s="122" t="s">
+      <c r="M17" s="87"/>
+      <c r="N17" s="150" t="s">
         <v>158</v>
       </c>
-      <c r="O17" s="122"/>
-      <c r="P17" s="122" t="s">
+      <c r="O17" s="150"/>
+      <c r="P17" s="150" t="s">
         <v>158</v>
       </c>
-      <c r="Q17" s="122"/>
-      <c r="R17" s="122" t="s">
+      <c r="Q17" s="150"/>
+      <c r="R17" s="150" t="s">
         <v>158</v>
       </c>
-      <c r="S17" s="122"/>
-      <c r="T17" s="122" t="s">
+      <c r="S17" s="150"/>
+      <c r="T17" s="150" t="s">
         <v>158</v>
       </c>
-      <c r="U17" s="122"/>
-      <c r="V17" s="122" t="s">
+      <c r="U17" s="150"/>
+      <c r="V17" s="150" t="s">
         <v>158</v>
       </c>
-      <c r="W17" s="122"/>
+      <c r="W17" s="150"/>
     </row>
     <row r="18" spans="2:25" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D18" s="123"/>
-      <c r="E18" s="124"/>
-      <c r="F18" s="124"/>
-      <c r="G18" s="124"/>
-      <c r="H18" s="124"/>
-      <c r="I18" s="124"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="78"/>
-      <c r="M18" s="78"/>
-      <c r="N18" s="122"/>
-      <c r="O18" s="122"/>
-      <c r="P18" s="122"/>
-      <c r="Q18" s="122"/>
-      <c r="R18" s="122"/>
-      <c r="S18" s="122"/>
-      <c r="T18" s="122"/>
-      <c r="U18" s="122"/>
-      <c r="V18" s="122"/>
-      <c r="W18" s="122"/>
+      <c r="D18" s="153"/>
+      <c r="E18" s="154"/>
+      <c r="F18" s="154"/>
+      <c r="G18" s="154"/>
+      <c r="H18" s="154"/>
+      <c r="I18" s="154"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="150"/>
+      <c r="O18" s="150"/>
+      <c r="P18" s="150"/>
+      <c r="Q18" s="150"/>
+      <c r="R18" s="150"/>
+      <c r="S18" s="150"/>
+      <c r="T18" s="150"/>
+      <c r="U18" s="150"/>
+      <c r="V18" s="150"/>
+      <c r="W18" s="150"/>
     </row>
     <row r="21" spans="2:25" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="63" t="s">
@@ -39527,7 +39528,7 @@
       <c r="W39" s="62"/>
       <c r="X39" s="62"/>
       <c r="Y39" s="62"/>
-      <c r="AD39" s="129" t="s">
+      <c r="AD39" s="78" t="s">
         <v>167</v>
       </c>
       <c r="AE39" s="62"/>
@@ -39770,31 +39771,31 @@
       <c r="AC53" s="60"/>
       <c r="AD53" s="60"/>
       <c r="AE53" s="60"/>
-      <c r="AF53" s="130"/>
-      <c r="AG53" s="130"/>
-      <c r="AH53" s="130"/>
-      <c r="AI53" s="130"/>
-      <c r="AJ53" s="130"/>
-      <c r="AK53" s="130"/>
-      <c r="AL53" s="130"/>
-      <c r="AM53" s="130"/>
-      <c r="AN53" s="130"/>
-      <c r="AO53" s="130"/>
-      <c r="AP53" s="130"/>
-      <c r="AQ53" s="130"/>
-      <c r="AR53" s="130"/>
-      <c r="AS53" s="130"/>
-      <c r="AT53" s="130"/>
-      <c r="AU53" s="130"/>
-      <c r="AV53" s="130"/>
-      <c r="AW53" s="130"/>
-      <c r="AX53" s="130"/>
-      <c r="AY53" s="130"/>
-      <c r="AZ53" s="130"/>
-      <c r="BA53" s="130"/>
-      <c r="BB53" s="130"/>
-      <c r="BC53" s="130"/>
-      <c r="BD53" s="130"/>
+      <c r="AF53" s="79"/>
+      <c r="AG53" s="79"/>
+      <c r="AH53" s="79"/>
+      <c r="AI53" s="79"/>
+      <c r="AJ53" s="79"/>
+      <c r="AK53" s="79"/>
+      <c r="AL53" s="79"/>
+      <c r="AM53" s="79"/>
+      <c r="AN53" s="79"/>
+      <c r="AO53" s="79"/>
+      <c r="AP53" s="79"/>
+      <c r="AQ53" s="79"/>
+      <c r="AR53" s="79"/>
+      <c r="AS53" s="79"/>
+      <c r="AT53" s="79"/>
+      <c r="AU53" s="79"/>
+      <c r="AV53" s="79"/>
+      <c r="AW53" s="79"/>
+      <c r="AX53" s="79"/>
+      <c r="AY53" s="79"/>
+      <c r="AZ53" s="79"/>
+      <c r="BA53" s="79"/>
+      <c r="BB53" s="79"/>
+      <c r="BC53" s="79"/>
+      <c r="BD53" s="79"/>
       <c r="BE53" s="60"/>
       <c r="BF53" s="60"/>
       <c r="BG53" s="60"/>
@@ -39960,64 +39961,64 @@
       <c r="F85" s="60"/>
       <c r="G85" s="60"/>
       <c r="H85" s="60"/>
-      <c r="I85" s="130"/>
-      <c r="J85" s="130"/>
-      <c r="K85" s="130"/>
-      <c r="L85" s="130"/>
-      <c r="M85" s="130"/>
-      <c r="N85" s="130"/>
-      <c r="O85" s="130"/>
-      <c r="P85" s="130"/>
-      <c r="Q85" s="130"/>
-      <c r="R85" s="130"/>
-      <c r="S85" s="130"/>
-      <c r="T85" s="130"/>
-      <c r="U85" s="130"/>
-      <c r="V85" s="130"/>
-      <c r="W85" s="130"/>
-      <c r="X85" s="130"/>
-      <c r="Y85" s="130"/>
-      <c r="Z85" s="130"/>
-      <c r="AA85" s="130"/>
-      <c r="AB85" s="130"/>
-      <c r="AC85" s="130"/>
-      <c r="AD85" s="130"/>
-      <c r="AE85" s="130"/>
-      <c r="AF85" s="130"/>
-      <c r="AG85" s="130"/>
-      <c r="AH85" s="130"/>
-      <c r="AI85" s="130"/>
+      <c r="I85" s="79"/>
+      <c r="J85" s="79"/>
+      <c r="K85" s="79"/>
+      <c r="L85" s="79"/>
+      <c r="M85" s="79"/>
+      <c r="N85" s="79"/>
+      <c r="O85" s="79"/>
+      <c r="P85" s="79"/>
+      <c r="Q85" s="79"/>
+      <c r="R85" s="79"/>
+      <c r="S85" s="79"/>
+      <c r="T85" s="79"/>
+      <c r="U85" s="79"/>
+      <c r="V85" s="79"/>
+      <c r="W85" s="79"/>
+      <c r="X85" s="79"/>
+      <c r="Y85" s="79"/>
+      <c r="Z85" s="79"/>
+      <c r="AA85" s="79"/>
+      <c r="AB85" s="79"/>
+      <c r="AC85" s="79"/>
+      <c r="AD85" s="79"/>
+      <c r="AE85" s="79"/>
+      <c r="AF85" s="79"/>
+      <c r="AG85" s="79"/>
+      <c r="AH85" s="79"/>
+      <c r="AI85" s="79"/>
       <c r="AJ85" s="60"/>
       <c r="AK85" s="60"/>
       <c r="AL85" s="60"/>
       <c r="AM85" s="60"/>
-      <c r="AN85" s="130"/>
-      <c r="AO85" s="130"/>
-      <c r="AP85" s="130"/>
-      <c r="AQ85" s="130"/>
-      <c r="AR85" s="130"/>
-      <c r="AS85" s="130"/>
-      <c r="AT85" s="130"/>
-      <c r="AU85" s="130"/>
-      <c r="AV85" s="130"/>
-      <c r="AW85" s="130"/>
-      <c r="AX85" s="130"/>
-      <c r="AY85" s="130"/>
-      <c r="AZ85" s="130"/>
-      <c r="BA85" s="130"/>
-      <c r="BB85" s="130"/>
-      <c r="BC85" s="130"/>
-      <c r="BD85" s="130"/>
-      <c r="BE85" s="130"/>
-      <c r="BF85" s="130"/>
-      <c r="BG85" s="130"/>
-      <c r="BH85" s="130"/>
-      <c r="BI85" s="130"/>
-      <c r="BJ85" s="130"/>
-      <c r="BK85" s="130"/>
-      <c r="BL85" s="130"/>
-      <c r="BM85" s="130"/>
-      <c r="BN85" s="130"/>
+      <c r="AN85" s="79"/>
+      <c r="AO85" s="79"/>
+      <c r="AP85" s="79"/>
+      <c r="AQ85" s="79"/>
+      <c r="AR85" s="79"/>
+      <c r="AS85" s="79"/>
+      <c r="AT85" s="79"/>
+      <c r="AU85" s="79"/>
+      <c r="AV85" s="79"/>
+      <c r="AW85" s="79"/>
+      <c r="AX85" s="79"/>
+      <c r="AY85" s="79"/>
+      <c r="AZ85" s="79"/>
+      <c r="BA85" s="79"/>
+      <c r="BB85" s="79"/>
+      <c r="BC85" s="79"/>
+      <c r="BD85" s="79"/>
+      <c r="BE85" s="79"/>
+      <c r="BF85" s="79"/>
+      <c r="BG85" s="79"/>
+      <c r="BH85" s="79"/>
+      <c r="BI85" s="79"/>
+      <c r="BJ85" s="79"/>
+      <c r="BK85" s="79"/>
+      <c r="BL85" s="79"/>
+      <c r="BM85" s="79"/>
+      <c r="BN85" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -40050,7 +40051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2EB330E-4C99-4D92-B42A-5AFF4755A2E4}">
   <dimension ref="A1:AI58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AI13" sqref="AI13"/>
     </sheetView>
   </sheetViews>
@@ -40597,7 +40598,7 @@
         <v>120</v>
       </c>
       <c r="D10" s="71" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -41206,10 +41207,10 @@
       <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:9" ht="26.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="111" t="s">
+      <c r="A17" s="156" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="111"/>
+      <c r="B17" s="156"/>
     </row>
     <row r="22" spans="1:9" ht="32.4" x14ac:dyDescent="0.55000000000000004">
       <c r="I22" s="15" t="s">
